--- a/Feature-Analysis/Resize Feature/s_07_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_07_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.69571759261</v>
+        <v>738157.69571759261</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.69616898149</v>
+        <v>738157.69616898149</v>
       </c>
       <c r="C3" s="0">
         <v>38.999999687075615</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.6965740741</v>
+        <v>738157.6965740741</v>
       </c>
       <c r="C4" s="0">
         <v>74.000000953674316</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.69696759258</v>
+        <v>738157.69696759258</v>
       </c>
       <c r="C5" s="0">
         <v>107.99999758601189</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.69737268519</v>
+        <v>738157.69737268519</v>
       </c>
       <c r="C6" s="0">
         <v>142.99999885261059</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.69777777779</v>
+        <v>738157.69777777779</v>
       </c>
       <c r="C7" s="0">
         <v>178.00000011920929</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.69817129627</v>
+        <v>738157.69817129627</v>
       </c>
       <c r="C8" s="0">
         <v>211.99999675154686</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.69857638888</v>
+        <v>738157.69857638888</v>
       </c>
       <c r="C9" s="0">
         <v>246.99999801814556</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.69954861107</v>
+        <v>738157.69954861107</v>
       </c>
       <c r="C10" s="0">
         <v>330.99999502301216</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.69954861107</v>
+        <v>738157.69954861107</v>
       </c>
       <c r="C11" s="0">
         <v>330.99999502301216</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.69984953699</v>
+        <v>738157.69984953699</v>
       </c>
       <c r="C12" s="0">
         <v>356.9999948143959</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.70012731478</v>
+        <v>738157.70012731478</v>
       </c>
       <c r="C13" s="0">
         <v>380.99999539554119</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.70053240738</v>
+        <v>738157.70053240738</v>
       </c>
       <c r="C14" s="0">
         <v>415.99999666213989</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.70092592598</v>
+        <v>738157.70092592598</v>
       </c>
       <c r="C15" s="0">
         <v>450.00000335276127</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.70137731486</v>
+        <v>738157.70137731486</v>
       </c>
       <c r="C16" s="0">
         <v>489.00000303983688</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.70178240736</v>
+        <v>738157.70178240736</v>
       </c>
       <c r="C17" s="0">
         <v>523.99999424815178</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.70217592595</v>
+        <v>738157.70217592595</v>
       </c>
       <c r="C18" s="0">
         <v>558.00000093877316</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.70258101856</v>
+        <v>738157.70258101856</v>
       </c>
       <c r="C19" s="0">
         <v>593.00000220537186</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.70302083332</v>
+        <v>738157.70302083332</v>
       </c>
       <c r="C20" s="0">
         <v>630.99999725818634</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.70332175924</v>
+        <v>738157.70332175924</v>
       </c>
       <c r="C21" s="0">
         <v>656.99999704957008</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.70372685185</v>
+        <v>738157.70372685185</v>
       </c>
       <c r="C22" s="0">
         <v>691.99999831616879</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.70412037033</v>
+        <v>738157.70412037033</v>
       </c>
       <c r="C23" s="0">
         <v>725.99999494850636</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.70454861107</v>
+        <v>738157.70454861107</v>
       </c>
       <c r="C24" s="0">
         <v>762.99999542534351</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.70496527781</v>
+        <v>738157.70496527781</v>
       </c>
       <c r="C25" s="0">
         <v>799.00000132620335</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.70535879629</v>
+        <v>738157.70535879629</v>
       </c>
       <c r="C26" s="0">
         <v>832.99999795854092</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.70576388889</v>
+        <v>738157.70576388889</v>
       </c>
       <c r="C27" s="0">
         <v>867.99999922513962</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.70618055551</v>
+        <v>738157.70618055551</v>
       </c>
       <c r="C28" s="0">
         <v>903.99999506771564</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.70656249998</v>
+        <v>738157.70656249998</v>
       </c>
       <c r="C29" s="0">
         <v>936.99999712407589</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.70697916672</v>
+        <v>738157.70697916672</v>
       </c>
       <c r="C30" s="0">
         <v>973.00000302493572</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.70738425921</v>
+        <v>738157.70738425921</v>
       </c>
       <c r="C31" s="0">
         <v>1007.9999942332506</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.70781249995</v>
+        <v>738157.70781249995</v>
       </c>
       <c r="C32" s="0">
         <v>1044.9999947100878</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.70822916669</v>
+        <v>738157.70822916669</v>
       </c>
       <c r="C33" s="0">
         <v>1081.0000006109476</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.70853009261</v>
+        <v>738157.70853009261</v>
       </c>
       <c r="C34" s="0">
         <v>1107.0000004023314</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.70893518522</v>
+        <v>738157.70893518522</v>
       </c>
       <c r="C35" s="0">
         <v>1142.0000016689301</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.70935185184</v>
+        <v>738157.70935185184</v>
       </c>
       <c r="C36" s="0">
         <v>1177.9999975115061</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.70979166671</v>
+        <v>738157.70979166671</v>
       </c>
       <c r="C37" s="0">
         <v>1216.0000026226044</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.71020833333</v>
+        <v>738157.71020833333</v>
       </c>
       <c r="C38" s="0">
         <v>1251.9999984651804</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.71061342594</v>
+        <v>738157.71061342594</v>
       </c>
       <c r="C39" s="0">
         <v>1286.9999997317791</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.71101851854</v>
+        <v>738157.71101851854</v>
       </c>
       <c r="C40" s="0">
         <v>1322.0000009983778</v>
